--- a/template/excel/ExportSchedule_2024-05-01 to 2024-05-31 TEAM_d3c30846-0631-4bdc-89a2-2ebcc0770009.xlsx
+++ b/template/excel/ExportSchedule_2024-05-01 to 2024-05-31 TEAM_d3c30846-0631-4bdc-89a2-2ebcc0770009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shwetac\PycharmProjects\FinalProject\portal-main\Cloudportal\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/anjulsi_amdocs_com/Documents/Backup Folders/Desktop/djangoproject/Cloudportal/template/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE4D03-6F6D-4224-8731-D0759CE98B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{492C361F-E3A2-49FE-8CA7-3841A497C76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC0FC27-FD70-4480-8131-FF1ABF945725}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
     <t>Contact Number</t>
   </si>
   <si>
-    <t>Sat, May 04</t>
+    <t>Sat, May 4</t>
   </si>
 </sst>
 </file>
@@ -885,21 +885,21 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" customWidth="1"/>
-    <col min="4" max="34" width="20.6640625" customWidth="1"/>
-    <col min="35" max="35" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" customWidth="1"/>
+    <col min="2" max="2" width="31.796875" customWidth="1"/>
+    <col min="3" max="3" width="37.796875" customWidth="1"/>
+    <col min="4" max="34" width="20.69921875" customWidth="1"/>
+    <col min="35" max="35" width="35.19921875" customWidth="1"/>
     <col min="36" max="36" width="37.5" customWidth="1"/>
-    <col min="37" max="37" width="24.75" customWidth="1"/>
+    <col min="37" max="37" width="24.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="AK2" s="11"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="AK4" s="11"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="23" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="24" t="s">
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -1578,8 +1578,8 @@
       <c r="H7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>40</v>
+      <c r="I7" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>35</v>
@@ -1657,7 +1657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2447,8 +2447,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="180">
     <mergeCell ref="Z9"/>
@@ -2643,15 +2643,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="34" width="20.6640625" customWidth="1"/>
-    <col min="35" max="36" width="15.6640625" customWidth="1"/>
-    <col min="37" max="46" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" customWidth="1"/>
+    <col min="2" max="34" width="20.69921875" customWidth="1"/>
+    <col min="35" max="36" width="15.69921875" customWidth="1"/>
+    <col min="37" max="46" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
